--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>value</t>
   </si>
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1069,11 +1069,6 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B64576-B808-4736-81CD-7FC6BF423675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>value</t>
   </si>
@@ -269,13 +275,16 @@
   </si>
   <si>
     <t>sus</t>
+  </si>
+  <si>
+    <t>paí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +299,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,17 +326,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,9 +424,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,6 +476,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,471 +669,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B64576-B808-4736-81CD-7FC6BF423675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>value</t>
   </si>
@@ -269,13 +275,16 @@
   </si>
   <si>
     <t>sus</t>
+  </si>
+  <si>
+    <t>paí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +299,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,17 +326,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,9 +424,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,6 +476,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,466 +669,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B64576-B808-4736-81CD-7FC6BF423675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB68045-3FFD-4681-8396-E9B778BB9183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>value</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>paí</t>
+  </si>
+  <si>
+    <t>chile</t>
   </si>
 </sst>
 </file>
@@ -670,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,6 +1141,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB68045-3FFD-4681-8396-E9B778BB9183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D473EA-BCB6-4990-8D75-57FD432F2C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>value</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>paí</t>
-  </si>
-  <si>
-    <t>chile</t>
   </si>
 </sst>
 </file>
@@ -673,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,11 +1138,6 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D473EA-BCB6-4990-8D75-57FD432F2C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA852D1B-F012-40E9-8ACB-E34B700B2862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>value</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>paí</t>
+  </si>
+  <si>
+    <t>chile</t>
   </si>
 </sst>
 </file>
@@ -670,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,6 +1141,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA852D1B-F012-40E9-8ACB-E34B700B2862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62BA359-9C97-4D95-BE1F-843AD79345FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>value</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>paí</t>
-  </si>
-  <si>
-    <t>chile</t>
   </si>
 </sst>
 </file>
@@ -673,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,11 +1138,6 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62BA359-9C97-4D95-BE1F-843AD79345FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328F80FF-796D-49A0-9207-9904A6787384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>value</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>paí</t>
+  </si>
+  <si>
+    <t>chile</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A93" sqref="A93"/>
@@ -1138,6 +1141,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328F80FF-796D-49A0-9207-9904A6787384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A0FC3E-8292-4577-AA52-49A9A46FEDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>value</t>
   </si>
@@ -280,7 +280,13 @@
     <t>paí</t>
   </si>
   <si>
-    <t>chile</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>su</t>
   </si>
 </sst>
 </file>
@@ -673,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,6 +1152,16 @@
         <v>86</v>
       </c>
     </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A0FC3E-8292-4577-AA52-49A9A46FEDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B1DFB-5BE5-4F22-9AED-96990AD90139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>value</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>su</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>es</t>
   </si>
 </sst>
 </file>
@@ -679,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,6 +1168,16 @@
         <v>88</v>
       </c>
     </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B1DFB-5BE5-4F22-9AED-96990AD90139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC141D9-5C40-4A62-8597-8EB4AADEDCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>value</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>es</t>
+  </si>
+  <si>
+    <t>cooperativacontigo</t>
   </si>
 </sst>
 </file>
@@ -685,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,6 +1181,11 @@
         <v>90</v>
       </c>
     </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\app_shiny\git\ds_insumos_wordcloud\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC141D9-5C40-4A62-8597-8EB4AADEDCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>value</t>
   </si>
@@ -296,13 +290,16 @@
   </si>
   <si>
     <t>cooperativacontigo</t>
+  </si>
+  <si>
+    <t>director</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,27 +439,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,24 +473,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,503 +648,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>value</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t>director</t>
+  </si>
+  <si>
+    <t>adnhoy</t>
+  </si>
+  <si>
+    <t>ciudadanoadn</t>
+  </si>
+  <si>
+    <t>adnenalerta</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>adn</t>
   </si>
 </sst>
 </file>
@@ -649,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1152,6 +1167,31 @@
         <v>92</v>
       </c>
     </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
   <si>
     <t>value</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>adn</t>
+  </si>
+  <si>
+    <t>emoltv</t>
   </si>
 </sst>
 </file>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A104"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1192,6 +1195,11 @@
         <v>97</v>
       </c>
     </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>value</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>emoltv</t>
+  </si>
+  <si>
+    <t>EmolTV|</t>
   </si>
 </sst>
 </file>
@@ -667,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A105"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1200,6 +1203,11 @@
         <v>98</v>
       </c>
     </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t>value</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>EmolTV|</t>
+  </si>
+  <si>
+    <t>facts</t>
   </si>
 </sst>
 </file>
@@ -670,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A106"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1208,6 +1211,11 @@
         <v>99</v>
       </c>
     </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>value</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>facts</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -673,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A107"/>
+  <dimension ref="A1:A111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1216,6 +1228,26 @@
         <v>100</v>
       </c>
     </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>value</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>the</t>
+  </si>
+  <si>
+    <t>amp</t>
   </si>
 </sst>
 </file>
@@ -685,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1248,6 +1251,11 @@
         <v>104</v>
       </c>
     </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -1,34 +1,322 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25003"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DB70A7-8256-4BEF-8C7C-365F10DFD1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$112</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>adn</t>
+  </si>
+  <si>
+    <t>adnenalerta</t>
+  </si>
+  <si>
+    <t>adnhoy</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>ante</t>
+  </si>
+  <si>
+    <t>antes</t>
+  </si>
+  <si>
+    <t>apenas</t>
+  </si>
+  <si>
+    <t>aquél</t>
+  </si>
+  <si>
+    <t>así</t>
+  </si>
+  <si>
+    <t>aunque</t>
+  </si>
+  <si>
+    <t>bajo</t>
+  </si>
+  <si>
+    <t>bien</t>
+  </si>
+  <si>
+    <t>cabe</t>
+  </si>
+  <si>
+    <t>cerca</t>
+  </si>
+  <si>
+    <t>ciudadanoadn</t>
+  </si>
+  <si>
+    <t>como</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>conque</t>
+  </si>
+  <si>
+    <t>contra</t>
+  </si>
+  <si>
+    <t>cooperativacontigo</t>
+  </si>
+  <si>
+    <t>Cuando</t>
+  </si>
+  <si>
+    <t>cuanto</t>
+  </si>
+  <si>
+    <t>dado</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>desde</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>durante</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>el</t>
   </si>
   <si>
+    <t>emoltv</t>
+  </si>
+  <si>
+    <t>EmolTV|</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>entre</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>eso</t>
+  </si>
+  <si>
+    <t>esta</t>
+  </si>
+  <si>
+    <t>este</t>
+  </si>
+  <si>
+    <t>éste</t>
+  </si>
+  <si>
+    <t>esto</t>
+  </si>
+  <si>
+    <t>facts</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>hacia</t>
+  </si>
+  <si>
+    <t>hasta</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>igual que</t>
+  </si>
+  <si>
     <t>la</t>
   </si>
   <si>
+    <t>las</t>
+  </si>
+  <si>
+    <t>lejos</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
     <t>los</t>
   </si>
   <si>
-    <t>las</t>
+    <t>luego</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>más</t>
+  </si>
+  <si>
+    <t>mediante</t>
+  </si>
+  <si>
+    <t>menos</t>
+  </si>
+  <si>
+    <t>mientras</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nos</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>paí</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>pero</t>
+  </si>
+  <si>
+    <t>pesar</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>por más que</t>
+  </si>
+  <si>
+    <t>porque</t>
+  </si>
+  <si>
+    <t>pues</t>
+  </si>
+  <si>
+    <t>puesto</t>
+  </si>
+  <si>
+    <t>que</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>según</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>siempre</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>sino</t>
+  </si>
+  <si>
+    <t>siquiera</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>sobre</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>sus</t>
+  </si>
+  <si>
+    <t>tal</t>
+  </si>
+  <si>
+    <t>también</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>tras</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
   <si>
     <t>un</t>
@@ -37,307 +325,52 @@
     <t>una</t>
   </si>
   <si>
+    <t>unas</t>
+  </si>
+  <si>
     <t>unos</t>
   </si>
   <si>
-    <t>unas</t>
-  </si>
-  <si>
-    <t>del</t>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>vía</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>que</t>
-  </si>
-  <si>
-    <t>pero</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>aunque</t>
-  </si>
-  <si>
-    <t>sino</t>
-  </si>
-  <si>
-    <t>siquiera</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
-    <t>bien</t>
-  </si>
-  <si>
     <t>ya</t>
   </si>
   <si>
-    <t>cerca</t>
-  </si>
-  <si>
-    <t>lejos</t>
-  </si>
-  <si>
-    <t>éste</t>
-  </si>
-  <si>
-    <t>aquél</t>
-  </si>
-  <si>
-    <t>pues</t>
-  </si>
-  <si>
-    <t>porque</t>
-  </si>
-  <si>
-    <t>puesto</t>
-  </si>
-  <si>
     <t>ya que</t>
   </si>
   <si>
-    <t>como</t>
-  </si>
-  <si>
-    <t>más</t>
-  </si>
-  <si>
-    <t>igual que</t>
-  </si>
-  <si>
-    <t>menos</t>
-  </si>
-  <si>
-    <t>así</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>tal</t>
-  </si>
-  <si>
-    <t>dado</t>
-  </si>
-  <si>
-    <t>siempre</t>
-  </si>
-  <si>
-    <t>pesar</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>por más que</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>luego</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>conque</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>Cuando</t>
-  </si>
-  <si>
-    <t>mientras</t>
-  </si>
-  <si>
-    <t>antes</t>
-  </si>
-  <si>
-    <t>apenas</t>
-  </si>
-  <si>
-    <t>cuanto</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>durante</t>
-  </si>
-  <si>
-    <t>según</t>
-  </si>
-  <si>
-    <t>ante</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>sin</t>
-  </si>
-  <si>
-    <t>bajo</t>
-  </si>
-  <si>
-    <t>entre</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>cabe</t>
-  </si>
-  <si>
-    <t>hacia</t>
-  </si>
-  <si>
-    <t>sobre</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>hasta</t>
-  </si>
-  <si>
-    <t>tras</t>
-  </si>
-  <si>
-    <t>contra</t>
-  </si>
-  <si>
-    <t>mediante</t>
-  </si>
-  <si>
-    <t>versus</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>para</t>
-  </si>
-  <si>
-    <t>vía</t>
-  </si>
-  <si>
-    <t>desde</t>
-  </si>
-  <si>
-    <t>por</t>
-  </si>
-  <si>
-    <t>también</t>
-  </si>
-  <si>
-    <t>esta</t>
-  </si>
-  <si>
-    <t>este</t>
-  </si>
-  <si>
-    <t>esto</t>
-  </si>
-  <si>
-    <t>nos</t>
-  </si>
-  <si>
-    <t>eso</t>
-  </si>
-  <si>
-    <t>sus</t>
-  </si>
-  <si>
-    <t>paí</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>cooperativacontigo</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>adnhoy</t>
-  </si>
-  <si>
-    <t>ciudadanoadn</t>
-  </si>
-  <si>
-    <t>adnenalerta</t>
-  </si>
-  <si>
-    <t>whatsapp</t>
-  </si>
-  <si>
-    <t>adn</t>
-  </si>
-  <si>
-    <t>emoltv</t>
-  </si>
-  <si>
-    <t>EmolTV|</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>amp</t>
+    <t>se</t>
+  </si>
+  <si>
+    <t>está</t>
+  </si>
+  <si>
+    <t>qué</t>
+  </si>
+  <si>
+    <t>junto</t>
+  </si>
+  <si>
+    <t>tienen</t>
+  </si>
+  <si>
+    <t>solo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -404,7 +437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,9 +511,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,6 +563,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,14 +756,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -763,142 +835,142 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -923,177 +995,177 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>64</v>
+      <c r="A70" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -1103,56 +1175,56 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1256,7 +1328,42 @@
         <v>105</v>
       </c>
     </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A112" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A112">
+      <sortCondition ref="A1:A112"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/palabras.xlsx
+++ b/palabras.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25009"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DB70A7-8256-4BEF-8C7C-365F10DFD1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F0DB26-E378-40A1-99DD-13D45B65454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>value</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>solo</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>esa</t>
+  </si>
+  <si>
+    <t>les</t>
+  </si>
+  <si>
+    <t>soy</t>
   </si>
 </sst>
 </file>
@@ -757,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A118"/>
+  <dimension ref="A1:A122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1358,6 +1370,26 @@
         <v>111</v>
       </c>
     </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A112" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A112">
